--- a/List Team.xlsx
+++ b/List Team.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Task 4</t>
+  </si>
+  <si>
+    <t>20/1/2020</t>
+  </si>
+  <si>
+    <t>RazorPage</t>
   </si>
 </sst>
 </file>
@@ -114,7 +120,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,16 +178,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -185,6 +194,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,23 +481,23 @@
   <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>44179</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -492,39 +505,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -532,7 +545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -540,266 +553,273 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="23.4" x14ac:dyDescent="0.45">
       <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-    </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-    </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B20">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D20">
